--- a/PDF CONTAINER/FUTURE PDF/future_good.xlsx
+++ b/PDF CONTAINER/FUTURE PDF/future_good.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AQ32"/>
+  <dimension ref="A1:AQ22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -653,48 +653,52 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>VD168203</t>
+          <t>VD177263</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mr. SANJIB DAS</t>
+          <t>SOM BAHADUR CHETRY</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>AKRA DUTTA BAGAN, BARTALA, MAHESHTALA,</t>
+          <t>S/O. Padam Bahadur Chetry,, VILL, Gyati Gaon,, PO,</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>9331919011</t>
+          <t>6000091388</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>raj.priyanshu.rp@gmail.com</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr"/>
+          <t>DKBOSE0414@GMAIL.COM</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Probus Insurance Broker Limited - BRR</t>
+        </is>
+      </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>09/07/2024</t>
+          <t>12/07/2024</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>10/07/2024</t>
+          <t>13/07/2024</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>09/07/2025</t>
+          <t>12/07/2025</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>18</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -725,68 +729,76 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>LPG</t>
+          <t>Petrol</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>OK4DB1038688</t>
+          <t>K10BN4117030</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>MD6M14LK1B4D12478</t>
+          <t>MA3EADE1S00112437</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>998</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>WB19E7393</t>
+          <t>AS01AQ5275</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>TVS KING AUTO RICKSHAW  LPG
+          <t>MARUTI SUZ ALTO K10LXI
 12
 R</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>3 Wheeled Vehicle For Carrying</t>
+          <t>Private Car</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>ALIPORE</t>
+          <t>GUWAHATI</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>2011</t>
+          <t>2010</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Mrs Bahadur Chetry</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr"/>
-      <c r="AD2" t="inlineStr"/>
+          <t>Wife</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>40Y</t>
+        </is>
+      </c>
+      <c r="AD2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
       <c r="AE2" t="inlineStr">
         <is>
           <t>0</t>
@@ -794,33 +806,33 @@
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>5,773.00</t>
+          <t>2,094.00</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr"/>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>5,833.00</t>
+          <t>2,424.00</t>
         </is>
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>5,833.00</t>
+          <t>2,424.00</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
-          <t>5,833.00</t>
+          <t>2,424.00</t>
         </is>
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>1,049.94</t>
+          <t>436.32</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>6,883.00</t>
+          <t>2,860.00</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr"/>
@@ -829,55 +841,59 @@
       <c r="AP2" t="inlineStr"/>
       <c r="AQ2" t="inlineStr">
         <is>
-          <t>VD168203.pdf</t>
+          <t>VD177263.pdf</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>VD168388</t>
+          <t>VD182278</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mr. PARMAR ASHOKBHAI RAMJIBHAI</t>
+          <t>Mr. Vikas Kailash</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>BHOLAD, NESDA, SIHOR, Bhavnagar, Gujarat, 364240</t>
+          <t>Hn 102 Ward 3 Indra Colony, Hatpiplya Dewas, Dewas,</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>7069445180</t>
+          <t>8889030763</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>mahadevinsurance20@gmail.com</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr"/>
+          <t>ljcc.dewas@gmail.com</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Probus Insurance Broker Limited-BRR</t>
+        </is>
+      </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>09/07/2024</t>
+          <t>13/07/2024</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>10/07/2024</t>
+          <t>15/07/2024</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>09/07/2025</t>
+          <t>14/07/2025</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>23</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -913,58 +929,58 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>A4D0811883</t>
+          <t>UEK3H42177</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>MA1LE2FYSE5E22327</t>
+          <t>MA1KD2UEEK3H67510</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>395</t>
+          <t>625</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>GJ04AT1134</t>
+          <t>MP41LA2741</t>
         </is>
       </c>
       <c r="W3" t="inlineStr"/>
       <c r="X3" t="inlineStr">
         <is>
-          <t>3 Wheeled Vehicle For Carrying</t>
+          <t>Goods Carrying-Public Carriers (Other</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>BHAVNAGAR</t>
+          <t>DEWAS</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>LEGEL HEIR</t>
+          <t>Kailash Ji</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>Wife</t>
+          <t>Father</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>55Y</t>
+          <t>54Y</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
@@ -974,95 +990,103 @@
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>5,773.00</t>
+          <t>16,049.00</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr"/>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>6,153.00</t>
+          <t>16,429.00</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>6,153.00</t>
+          <t>17,804.00</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
-          <t>6,153.00</t>
+          <t>17,804.00</t>
         </is>
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>1,107.54</t>
+          <t>2,241.78</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>7,261.00</t>
+          <t>20,046.00</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr"/>
       <c r="AN3" t="inlineStr"/>
       <c r="AO3" t="inlineStr"/>
-      <c r="AP3" t="inlineStr"/>
+      <c r="AP3" t="inlineStr">
+        <is>
+          <t>173,172</t>
+        </is>
+      </c>
       <c r="AQ3" t="inlineStr">
         <is>
-          <t>VD168388.pdf</t>
+          <t>VD182278.pdf</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>VD172685</t>
+          <t>VD183461</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Mrs. S Mamta Devi</t>
+          <t>PATEL NAKULBHAI BANGALIBHAI</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>R/O-09 DEVI SAHAY NAGAR, BARI AKHBARPUR I I T,</t>
+          <t>DHARMNAGAR MAIN ROAD, VINODNAGAR</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>8052851198</t>
+          <t>8320105876</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>wuerthdileep@gmail.com</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr"/>
+          <t>chetanthesiya0702@gmail.com</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Probus Insurance Broker Limited - BRR</t>
+        </is>
+      </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>10/07/2024</t>
+          <t>13/07/2024</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>12/07/2024</t>
+          <t>15/07/2024</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>11/07/2025</t>
+          <t>14/07/2025</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>09</t>
+          <t>24</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -1093,175 +1117,191 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>CNG</t>
+          <t>Petrol</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>AZXWNC96536</t>
+          <t>REVTRN08PZXM31252</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>MD2B47AX1NWD25839</t>
+          <t>MAT626359LKP55643</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>1199</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>UP78HN3199</t>
+          <t>GJ03LR0758</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>BAJAJ RE 4S ES CNG RICKSHAW
+          <t>TATA TIAGOREVOTRON XT
 12
 R</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>3 Wheeled Vehicle For Carrying</t>
+          <t>Private Car</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>KANPUR URBAN</t>
+          <t>RAJKOT</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MRS MANDAL</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr"/>
-      <c r="AD4" t="inlineStr"/>
+          <t>Wife</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>57Y</t>
+        </is>
+      </c>
+      <c r="AD4" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>359</t>
+          <t>8</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>5,773.00</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr"/>
+          <t>3,416.00</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>50.00</t>
+        </is>
+      </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>5,883.00</t>
+          <t>4,046.00</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>6,242.00</t>
+          <t>12,433.00</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
         <is>
-          <t>6,242.00</t>
+          <t>12,433.00</t>
         </is>
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>1,123.56</t>
+          <t>2,237.94</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>7,366.00</t>
+          <t>14,671.00</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>Tata AIG General Insurance Co. Lt</t>
+          <t>Edelweiss General Insurance Company Limit</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>630068573500</t>
+          <t>000000009005108</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>11/07/2024</t>
+          <t>14/07/2024</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>105,000</t>
+          <t>400,000</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
         <is>
-          <t>VD172685.pdf</t>
+          <t>VD183461 (1).pdf</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>VD173905</t>
+          <t>VD183461</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Mr. WASIM SHAIKH</t>
+          <t>PATEL NAKULBHAI BANGALIBHAI</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>WARD NO.1. NAYA PURA, NAGAR PRISHAD, Ujjain,</t>
+          <t>DHARMNAGAR MAIN ROAD, VINODNAGAR</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>9685236964</t>
+          <t>8320105876</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>mahendrasharma8286@gmail.com</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr"/>
+          <t>chetanthesiya0702@gmail.com</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Probus Insurance Broker Limited - BRR</t>
+        </is>
+      </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>11/07/2024</t>
+          <t>13/07/2024</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>14/07/2024</t>
+          <t>15/07/2024</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>13/07/2025</t>
+          <t>14/07/2025</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>24</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -1292,59 +1332,59 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>CNG</t>
+          <t>Petrol</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>TBPCFGX3015804</t>
+          <t>REVTRN08PZXM31252</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>MBX0004AFXG885058</t>
+          <t>MAT626359LKP55643</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>395</t>
+          <t>1199</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>MP13R5133</t>
+          <t>GJ03LR0758</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>PIAGGIO APE CITY BSIV
+          <t>TATA TIAGOREVOTRON XT
 12
 R</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>3 Wheeled Vehicle For Carrying</t>
+          <t>Private Car</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>UJJAIN</t>
+          <t>RAJKOT</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>Mrs Shaikh</t>
+          <t>MRS MANDAL</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
@@ -1354,7 +1394,7 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>28Y</t>
+          <t>57Y</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
@@ -1364,103 +1404,119 @@
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>545</t>
+          <t>8</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>5,773.00</t>
-        </is>
-      </c>
-      <c r="AG5" t="inlineStr"/>
+          <t>3,416.00</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>50.00</t>
+        </is>
+      </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>6,213.00</t>
+          <t>4,046.00</t>
         </is>
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>6,758.00</t>
+          <t>12,433.00</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
         <is>
-          <t>6,758.00</t>
+          <t>12,433.00</t>
         </is>
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>1,216.44</t>
+          <t>2,237.94</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>7,974.00</t>
-        </is>
-      </c>
-      <c r="AM5" t="inlineStr"/>
-      <c r="AN5" t="inlineStr"/>
-      <c r="AO5" t="inlineStr"/>
+          <t>14,671.00</t>
+        </is>
+      </c>
+      <c r="AM5" t="inlineStr">
+        <is>
+          <t>Edelweiss General Insurance Company Limit</t>
+        </is>
+      </c>
+      <c r="AN5" t="inlineStr">
+        <is>
+          <t>000000009005108</t>
+        </is>
+      </c>
+      <c r="AO5" t="inlineStr">
+        <is>
+          <t>14/07/2024</t>
+        </is>
+      </c>
       <c r="AP5" t="inlineStr">
         <is>
-          <t>112,000</t>
+          <t>400,000</t>
         </is>
       </c>
       <c r="AQ5" t="inlineStr">
         <is>
-          <t>VD173905.pdf</t>
+          <t>VD183461.pdf</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>VD177263</t>
+          <t>VD183822</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>SOM BAHADUR CHETRY</t>
+          <t>Kaushal Kishore</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>S/O. Padam Bahadur Chetry,, VILL, Gyati Gaon,, PO,</t>
+          <t>S/O, Rama Shankar, VILL POST GAISADI, Balrampur,</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>6000091388</t>
+          <t>6306552320</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>DKBOSE0414@GMAIL.COM</t>
+          <t>a346739@gmail.com</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Probus Insurance Broker Limited </t>
+          <t>Probus Insurance Broker Limited - BRR</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>12/07/2024</t>
+          <t>13/07/2024</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>13/07/2024</t>
+          <t>14/07/2024</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>12/07/2025</t>
+          <t>13/07/2025</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>09</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1496,12 +1552,12 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>K10BN4117030</t>
+          <t>F8DN5215506</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>MA3EADE1S00112437</t>
+          <t>MA3EUA61S00430091</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
@@ -1511,17 +1567,17 @@
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>998</t>
+          <t>796</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>AS01AQ5275</t>
+          <t>UP47K7111</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>MARUTI SUZ ALTO K10LXI
+          <t>MARUTI SUZ ALTO 800VXI
 12
 R</t>
         </is>
@@ -1533,17 +1589,17 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>GUWAHATI</t>
+          <t>BALRAMPUR</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>2010</t>
+          <t>2014</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>Mrs Bahadur Chetry</t>
+          <t>KAILASHA DEVI</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
@@ -1553,7 +1609,7 @@
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>40Y</t>
+          <t>56Y</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
@@ -1571,30 +1627,34 @@
           <t>2,094.00</t>
         </is>
       </c>
-      <c r="AG6" t="inlineStr"/>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>50.00</t>
+        </is>
+      </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t>2,424.00</t>
+          <t>2,474.00</t>
         </is>
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>2,424.00</t>
+          <t>2,474.00</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
         <is>
-          <t>2,424.00</t>
+          <t>2,474.00</t>
         </is>
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>436.32</t>
+          <t>445.32</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>2,860.00</t>
+          <t>2,919.00</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr"/>
@@ -1603,59 +1663,59 @@
       <c r="AP6" t="inlineStr"/>
       <c r="AQ6" t="inlineStr">
         <is>
-          <t>VD177263.pdf</t>
+          <t>VD183822 (1).pdf</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>VD178591</t>
+          <t>VD183822</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>RAJENDRA DODDASATHYA</t>
+          <t>Kaushal Kishore</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>S O D SUBBARAMAIAH 1 110 VEERA, VEERABALLE</t>
+          <t>S/O, Rama Shankar, VILL POST GAISADI, Balrampur,</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>9441963290</t>
+          <t>6306552320</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>srajendranath1073@gmail.com</t>
+          <t>a346739@gmail.com</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Probus Insurance Broker Limited </t>
+          <t>Probus Insurance Broker Limited - BRR</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>12/07/2024</t>
+          <t>13/07/2024</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>20/07/2024</t>
+          <t>14/07/2024</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>19/07/2025</t>
+          <t>13/07/2025</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>09</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1691,12 +1751,12 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>K12MN7385361</t>
+          <t>F8DN5215506</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>MBHCZC63SJL313347</t>
+          <t>MA3EUA61S00430091</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
@@ -1706,17 +1766,17 @@
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>1197</t>
+          <t>796</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>AP03CW6700</t>
+          <t>UP47K7111</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>MARUTI SUZ SWIFTVXI AMT
+          <t>MARUTI SUZ ALTO 800VXI
 12
 R</t>
         </is>
@@ -1728,17 +1788,17 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>TIRUPATHI</t>
+          <t>BALRAMPUR</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2014</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>D BHAVANI</t>
+          <t>KAILASHA DEVI</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
@@ -1748,7 +1808,7 @@
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>44Y</t>
+          <t>56Y</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
@@ -1758,95 +1818,83 @@
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>3,416.00</t>
-        </is>
-      </c>
-      <c r="AG7" t="inlineStr"/>
+          <t>2,094.00</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t>50.00</t>
+        </is>
+      </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t>3,746.00</t>
+          <t>2,474.00</t>
         </is>
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>11,346.00</t>
+          <t>2,474.00</t>
         </is>
       </c>
       <c r="AJ7" t="inlineStr">
         <is>
-          <t>11,346.00</t>
+          <t>2,474.00</t>
         </is>
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>2,042.28</t>
+          <t>445.32</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>13,388.00</t>
-        </is>
-      </c>
-      <c r="AM7" t="inlineStr">
-        <is>
-          <t>Tata AIG General Insurance Co. Lt</t>
-        </is>
-      </c>
-      <c r="AN7" t="inlineStr">
-        <is>
-          <t>620046853401</t>
-        </is>
-      </c>
-      <c r="AO7" t="inlineStr">
-        <is>
-          <t>19/07/2024</t>
-        </is>
-      </c>
-      <c r="AP7" t="inlineStr">
-        <is>
-          <t>405,000</t>
-        </is>
-      </c>
+          <t>2,919.00</t>
+        </is>
+      </c>
+      <c r="AM7" t="inlineStr"/>
+      <c r="AN7" t="inlineStr"/>
+      <c r="AO7" t="inlineStr"/>
+      <c r="AP7" t="inlineStr"/>
       <c r="AQ7" t="inlineStr">
         <is>
-          <t>VD178591.pdf</t>
+          <t>VD183822.pdf</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>VD182209</t>
+          <t>VD184108</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>RAHUL ARORA</t>
+          <t>Mr. Silvester Pyngrope</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>5, 1040, NEAR NAV SURGA MANDIR, MEEROKOT,</t>
+          <t>5TH MILE, UPPER SHILLONG, EAST KHASI HILLS,</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>9811667623</t>
+          <t>9957608439</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>RARORA268@YAHOO.COM</t>
+          <t>ALOMNOOR2013@GMAIL.COM</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Probus Insurance Broker Limited </t>
+          <t>Probus Insurance Broker Limited-BRR</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -1866,7 +1914,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>09</t>
+          <t>17</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -1897,70 +1945,68 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>Petrol</t>
+          <t>Diesel</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>G4HGEM806763</t>
+          <t>497TC41HSY824995</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>MALAM51BLEM561259</t>
+          <t>MAT513055HFH08513</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>1086</t>
+          <t>435</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>UP11AQ9655</t>
-        </is>
-      </c>
-      <c r="W8" t="inlineStr"/>
+          <t>ML05Q6818</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>PIAGGIO APE APE AUTO BSIV DX DIESEL
+12
+R</t>
+        </is>
+      </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>Private Car</t>
+          <t>3 Wheeled Vehicle For Carrying</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>SAHARANPUR</t>
+          <t>EAST KHASI HILLS</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>2017</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>TANIYA</t>
+          <t>-</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>Wife</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>31Y</t>
-        </is>
-      </c>
-      <c r="AD8" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr"/>
+      <c r="AD8" t="inlineStr"/>
       <c r="AE8" t="inlineStr">
         <is>
           <t>0</t>
@@ -1968,33 +2014,33 @@
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>3,416.00</t>
+          <t>5,773.00</t>
         </is>
       </c>
       <c r="AG8" t="inlineStr"/>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>3,746.00</t>
+          <t>5,773.00</t>
         </is>
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>3,746.00</t>
+          <t>5,773.00</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
         <is>
-          <t>3,746.00</t>
+          <t>5,773.00</t>
         </is>
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>674.28</t>
+          <t>1,039.14</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>4,420.00</t>
+          <t>6,812.00</t>
         </is>
       </c>
       <c r="AM8" t="inlineStr"/>
@@ -2003,55 +2049,59 @@
       <c r="AP8" t="inlineStr"/>
       <c r="AQ8" t="inlineStr">
         <is>
-          <t>VD182209.pdf</t>
+          <t>VD184108.pdf</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>VD182278</t>
+          <t>VD186000</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Mr. Vikas Kailash</t>
+          <t>Mr. Happy Sharma</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Hn 102 Ward 3 Indra Colony, Hatpiplya Dewas, Dewas,</t>
+          <t>S O SHAMSHER PARKASH 718 40 SA, 113 AMBALA</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>8889030763</t>
+          <t>8950482213</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>ljcc.dewas@gmail.com</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr"/>
+          <t>h15063627@gmail.com</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Probus Insurance Broker Limited-BRR</t>
+        </is>
+      </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>13/07/2024</t>
+          <t>15/07/2024</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>15/07/2024</t>
+          <t>16/07/2024</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>14/07/2025</t>
+          <t>15/07/2025</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>06</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -2087,149 +2137,143 @@
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>UEK3H42177</t>
+          <t>497TC92DXY823729</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>MA1KD2UEEK3H67510</t>
+          <t>MAT457403C7D17506</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>625</t>
+          <t>395</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>MP41LA2741</t>
-        </is>
-      </c>
-      <c r="W9" t="inlineStr"/>
+          <t>HR58A6323</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>PIAGGIO APE CARGO D 600
+12
+R</t>
+        </is>
+      </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>Goods Carrying-Public Carriers (Other</t>
+          <t>Goods Carrying-Motorized 3 Wheelers</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>DEWAS</t>
+          <t>YAMUNANAGAR</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2012</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>Kailash Ji</t>
+          <t>-</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>Father</t>
-        </is>
-      </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>54Y</t>
-        </is>
-      </c>
-      <c r="AD9" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr"/>
+      <c r="AD9" t="inlineStr"/>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>16,049.00</t>
+          <t>4,492.00</t>
         </is>
       </c>
       <c r="AG9" t="inlineStr"/>
       <c r="AH9" t="inlineStr">
         <is>
-          <t>16,429.00</t>
+          <t>4,492.00</t>
         </is>
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>17,804.00</t>
+          <t>4,492.00</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr">
         <is>
-          <t>17,804.00</t>
+          <t>4,492.00</t>
         </is>
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>2,241.78</t>
+          <t>539.04</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>20,046.00</t>
+          <t>5,031.00</t>
         </is>
       </c>
       <c r="AM9" t="inlineStr"/>
       <c r="AN9" t="inlineStr"/>
       <c r="AO9" t="inlineStr"/>
-      <c r="AP9" t="inlineStr">
-        <is>
-          <t>173,172</t>
-        </is>
-      </c>
+      <c r="AP9" t="inlineStr"/>
       <c r="AQ9" t="inlineStr">
         <is>
-          <t>VD182278.pdf</t>
+          <t>VD186000.pdf</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>VD183461</t>
+          <t>VD188386</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>PATEL NAKULBHAI BANGALIBHAI</t>
+          <t>Pallab Dutta</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>DHARMNAGAR MAIN ROAD, VINODNAGAR</t>
+          <t>No Mati Nawhalia Gaon No Mati, Nazira Sibsagar Sibsagar,</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>8320105876</t>
+          <t>8638226230</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>chetanthesiya0702@gmail.com</t>
+          <t>parthaassam1234@gmail.com</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Probus Insurance Broker Limited </t>
+          <t>Probus Insurance Broker Limited - BRR</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>13/07/2024</t>
+          <t>15/07/2024</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -2244,7 +2288,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>18</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -2280,12 +2324,12 @@
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>REVTRN08PZXM31252</t>
+          <t>K12NN9012461</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>MAT626359LKP55643</t>
+          <t>0MA3CZFB3SLG670811</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
@@ -2295,19 +2339,17 @@
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>1199</t>
+          <t>1197</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>GJ03LR0758</t>
+          <t>AS23Z9088</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>TATA TIAGOREVOTRON XT
-12
-R</t>
+          <t>MARUTI SUZ SWIFT DZIREVXI 1</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
@@ -2317,7 +2359,7 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>RAJKOT</t>
+          <t>TINSUKIA</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
@@ -2327,7 +2369,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>MRS MANDAL</t>
+          <t>Bharati Gohain</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
@@ -2337,7 +2379,7 @@
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>57Y</t>
+          <t>30Y</t>
         </is>
       </c>
       <c r="AD10" t="inlineStr">
@@ -2347,7 +2389,7 @@
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
@@ -2355,96 +2397,76 @@
           <t>3,416.00</t>
         </is>
       </c>
-      <c r="AG10" t="inlineStr">
-        <is>
-          <t>50.00</t>
-        </is>
-      </c>
+      <c r="AG10" t="inlineStr"/>
       <c r="AH10" t="inlineStr">
         <is>
-          <t>4,046.00</t>
+          <t>3,746.00</t>
         </is>
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>12,433.00</t>
+          <t>3,746.00</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr">
         <is>
-          <t>12,433.00</t>
+          <t>3,746.00</t>
         </is>
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>2,237.94</t>
+          <t>674.28</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>14,671.00</t>
-        </is>
-      </c>
-      <c r="AM10" t="inlineStr">
-        <is>
-          <t>Edelweiss General Insurance Company Limit</t>
-        </is>
-      </c>
-      <c r="AN10" t="inlineStr">
-        <is>
-          <t>000000009005108</t>
-        </is>
-      </c>
-      <c r="AO10" t="inlineStr">
-        <is>
-          <t>14/07/2024</t>
-        </is>
-      </c>
-      <c r="AP10" t="inlineStr">
-        <is>
-          <t>400,000</t>
-        </is>
-      </c>
+          <t>4,420.00</t>
+        </is>
+      </c>
+      <c r="AM10" t="inlineStr"/>
+      <c r="AN10" t="inlineStr"/>
+      <c r="AO10" t="inlineStr"/>
+      <c r="AP10" t="inlineStr"/>
       <c r="AQ10" t="inlineStr">
         <is>
-          <t>VD183461 (1).pdf</t>
+          <t>VD188386 (1).pdf</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>VD183461</t>
+          <t>VD188386</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>PATEL NAKULBHAI BANGALIBHAI</t>
+          <t>Pallab Dutta</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>DHARMNAGAR MAIN ROAD, VINODNAGAR</t>
+          <t>No Mati Nawhalia Gaon No Mati, Nazira Sibsagar Sibsagar,</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>8320105876</t>
+          <t>8638226230</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>chetanthesiya0702@gmail.com</t>
+          <t>parthaassam1234@gmail.com</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Probus Insurance Broker Limited </t>
+          <t>Probus Insurance Broker Limited - BRR</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>13/07/2024</t>
+          <t>15/07/2024</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -2459,7 +2481,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>18</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -2495,12 +2517,12 @@
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>REVTRN08PZXM31252</t>
+          <t>K12NN9012461</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>MAT626359LKP55643</t>
+          <t>0MA3CZFB3SLG670811</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
@@ -2510,19 +2532,17 @@
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>1199</t>
+          <t>1197</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>GJ03LR0758</t>
+          <t>AS23Z9088</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>TATA TIAGOREVOTRON XT
-12
-R</t>
+          <t>MARUTI SUZ SWIFT DZIREVXI 1</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
@@ -2532,7 +2552,7 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>RAJKOT</t>
+          <t>TINSUKIA</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
@@ -2542,7 +2562,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>MRS MANDAL</t>
+          <t>Bharati Gohain</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
@@ -2552,7 +2572,7 @@
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>57Y</t>
+          <t>30Y</t>
         </is>
       </c>
       <c r="AD11" t="inlineStr">
@@ -2562,7 +2582,7 @@
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AF11" t="inlineStr">
@@ -2570,111 +2590,91 @@
           <t>3,416.00</t>
         </is>
       </c>
-      <c r="AG11" t="inlineStr">
-        <is>
-          <t>50.00</t>
-        </is>
-      </c>
+      <c r="AG11" t="inlineStr"/>
       <c r="AH11" t="inlineStr">
         <is>
-          <t>4,046.00</t>
+          <t>3,746.00</t>
         </is>
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>12,433.00</t>
+          <t>3,746.00</t>
         </is>
       </c>
       <c r="AJ11" t="inlineStr">
         <is>
-          <t>12,433.00</t>
+          <t>3,746.00</t>
         </is>
       </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>2,237.94</t>
+          <t>674.28</t>
         </is>
       </c>
       <c r="AL11" t="inlineStr">
         <is>
-          <t>14,671.00</t>
-        </is>
-      </c>
-      <c r="AM11" t="inlineStr">
-        <is>
-          <t>Edelweiss General Insurance Company Limit</t>
-        </is>
-      </c>
-      <c r="AN11" t="inlineStr">
-        <is>
-          <t>000000009005108</t>
-        </is>
-      </c>
-      <c r="AO11" t="inlineStr">
-        <is>
-          <t>14/07/2024</t>
-        </is>
-      </c>
-      <c r="AP11" t="inlineStr">
-        <is>
-          <t>400,000</t>
-        </is>
-      </c>
+          <t>4,420.00</t>
+        </is>
+      </c>
+      <c r="AM11" t="inlineStr"/>
+      <c r="AN11" t="inlineStr"/>
+      <c r="AO11" t="inlineStr"/>
+      <c r="AP11" t="inlineStr"/>
       <c r="AQ11" t="inlineStr">
         <is>
-          <t>VD183461.pdf</t>
+          <t>VD188386.pdf</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>VD183822</t>
+          <t>VD192641</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Kaushal Kishore</t>
+          <t>Mr. ASHRAFUL SK</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>S/O, Rama Shankar, VILL POST GAISADI, Balrampur,</t>
+          <t>THANAR PARA, GHOSH PARA, GHOSHPARA, Nadia,</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>6306552320</t>
+          <t>9734670525</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>a346739@gmail.com</t>
+          <t>PROBUS.BAUL@GMAIL.COM</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Probus Insurance Broker Limited </t>
+          <t>Probus Insurance Broker Limited-BRR</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>13/07/2024</t>
+          <t>16/07/2024</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>14/07/2024</t>
+          <t>19/07/2024</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>13/07/2025</t>
+          <t>18/07/2025</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>09</t>
+          <t>19</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -2705,59 +2705,55 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>Petrol</t>
+          <t>Diesel</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>F8DN5215506</t>
+          <t>15CRAIL5BYXS20627</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>MA3EUA61S00430091</t>
+          <t>MAT535073MYB10870</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="U12" t="inlineStr">
-        <is>
-          <t>796</t>
-        </is>
-      </c>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr"/>
       <c r="V12" t="inlineStr">
         <is>
-          <t>UP47K7111</t>
+          <t>WB51C3917</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>MARUTI SUZ ALTO 800VXI
+          <t>TATA INTRA V30 BSVI
 12
 R</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>Private Car</t>
+          <t>Goods Carrying-Public Carriers (Other</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>BALRAMPUR</t>
+          <t>NADIA</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>KAILASHA DEVI</t>
+          <t>MRS SK</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
@@ -2767,7 +2763,7 @@
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>56Y</t>
+          <t>31Y</t>
         </is>
       </c>
       <c r="AD12" t="inlineStr">
@@ -2777,103 +2773,115 @@
       </c>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AF12" t="inlineStr">
         <is>
-          <t>2,094.00</t>
-        </is>
-      </c>
-      <c r="AG12" t="inlineStr">
-        <is>
-          <t>50.00</t>
-        </is>
-      </c>
+          <t>16,049.00</t>
+        </is>
+      </c>
+      <c r="AG12" t="inlineStr"/>
       <c r="AH12" t="inlineStr">
         <is>
-          <t>2,474.00</t>
+          <t>16,429.00</t>
         </is>
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>2,474.00</t>
+          <t>19,393.00</t>
         </is>
       </c>
       <c r="AJ12" t="inlineStr">
         <is>
-          <t>2,474.00</t>
+          <t>19,393.00</t>
         </is>
       </c>
       <c r="AK12" t="inlineStr">
         <is>
-          <t>445.32</t>
+          <t>2,527.80</t>
         </is>
       </c>
       <c r="AL12" t="inlineStr">
         <is>
-          <t>2,919.00</t>
-        </is>
-      </c>
-      <c r="AM12" t="inlineStr"/>
-      <c r="AN12" t="inlineStr"/>
-      <c r="AO12" t="inlineStr"/>
-      <c r="AP12" t="inlineStr"/>
+          <t>21,921.00</t>
+        </is>
+      </c>
+      <c r="AM12" t="inlineStr">
+        <is>
+          <t>Liberty Videocon General Insurance Co. Lt</t>
+        </is>
+      </c>
+      <c r="AN12" t="inlineStr">
+        <is>
+          <t>2013301407237000767000</t>
+        </is>
+      </c>
+      <c r="AO12" t="inlineStr">
+        <is>
+          <t>18/07/2024</t>
+        </is>
+      </c>
+      <c r="AP12" t="inlineStr">
+        <is>
+          <t>533,400</t>
+        </is>
+      </c>
       <c r="AQ12" t="inlineStr">
         <is>
-          <t>VD183822 (1).pdf</t>
+          <t>VD192641 (1).pdf</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>VD183822</t>
+          <t>VD192641</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Kaushal Kishore</t>
+          <t>Mr. ASHRAFUL SK</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>S/O, Rama Shankar, VILL POST GAISADI, Balrampur,</t>
+          <t>THANAR PARA, GHOSH PARA, GHOSHPARA, Nadia,</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>6306552320</t>
+          <t>9734670525</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>a346739@gmail.com</t>
+          <t>PROBUS.BAUL@GMAIL.COM</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t xml:space="preserve">Probus Insurance Broker Limited </t>
+          <t>Probus Insurance Broker Limited-BRR</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>13/07/2024</t>
+          <t>16/07/2024</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>14/07/2024</t>
+          <t>19/07/2024</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>13/07/2025</t>
+          <t>18/07/2025</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>09</t>
+          <t>19</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -2904,59 +2912,55 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>Petrol</t>
+          <t>Diesel</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>F8DN5215506</t>
+          <t>15CRAIL5BYXS20627</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>MA3EUA61S00430091</t>
+          <t>MAT535073MYB10870</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="U13" t="inlineStr">
-        <is>
-          <t>796</t>
-        </is>
-      </c>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr"/>
       <c r="V13" t="inlineStr">
         <is>
-          <t>UP47K7111</t>
+          <t>WB51C3917</t>
         </is>
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>MARUTI SUZ ALTO 800VXI
+          <t>TATA INTRA V30 BSVI
 12
 R</t>
         </is>
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>Private Car</t>
+          <t>Goods Carrying-Public Carriers (Other</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>BALRAMPUR</t>
+          <t>NADIA</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>KAILASHA DEVI</t>
+          <t>MRS SK</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
@@ -2966,7 +2970,7 @@
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>56Y</t>
+          <t>31Y</t>
         </is>
       </c>
       <c r="AD13" t="inlineStr">
@@ -2976,99 +2980,115 @@
       </c>
       <c r="AE13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AF13" t="inlineStr">
         <is>
-          <t>2,094.00</t>
-        </is>
-      </c>
-      <c r="AG13" t="inlineStr">
-        <is>
-          <t>50.00</t>
-        </is>
-      </c>
+          <t>16,049.00</t>
+        </is>
+      </c>
+      <c r="AG13" t="inlineStr"/>
       <c r="AH13" t="inlineStr">
         <is>
-          <t>2,474.00</t>
+          <t>16,429.00</t>
         </is>
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>2,474.00</t>
+          <t>19,393.00</t>
         </is>
       </c>
       <c r="AJ13" t="inlineStr">
         <is>
-          <t>2,474.00</t>
+          <t>19,393.00</t>
         </is>
       </c>
       <c r="AK13" t="inlineStr">
         <is>
-          <t>445.32</t>
+          <t>2,527.80</t>
         </is>
       </c>
       <c r="AL13" t="inlineStr">
         <is>
-          <t>2,919.00</t>
-        </is>
-      </c>
-      <c r="AM13" t="inlineStr"/>
-      <c r="AN13" t="inlineStr"/>
-      <c r="AO13" t="inlineStr"/>
-      <c r="AP13" t="inlineStr"/>
+          <t>21,921.00</t>
+        </is>
+      </c>
+      <c r="AM13" t="inlineStr">
+        <is>
+          <t>Liberty Videocon General Insurance Co. Lt</t>
+        </is>
+      </c>
+      <c r="AN13" t="inlineStr">
+        <is>
+          <t>2013301407237000767000</t>
+        </is>
+      </c>
+      <c r="AO13" t="inlineStr">
+        <is>
+          <t>18/07/2024</t>
+        </is>
+      </c>
+      <c r="AP13" t="inlineStr">
+        <is>
+          <t>533,400</t>
+        </is>
+      </c>
       <c r="AQ13" t="inlineStr">
         <is>
-          <t>VD183822.pdf</t>
+          <t>VD192641.pdf</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>VD184108</t>
+          <t>VD192974</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Mr. Silvester Pyngrope</t>
+          <t>JAGADISH BASUMATARY</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>5TH MILE, UPPER SHILLONG, EAST KHASI HILLS,</t>
+          <t>H NO 52, FATASIL AMBARI, KAMRUP, Kamrup, Asam,</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>9957608439</t>
+          <t>9957055257</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>ALOMNOOR2013@GMAIL.COM</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr"/>
+          <t>WBASUMATARY13@GMAIL.COM</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Probus Insurance Broker Limited - BRR</t>
+        </is>
+      </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>13/07/2024</t>
+          <t>16/07/2024</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>14/07/2024</t>
+          <t>17/07/2024</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>13/07/2025</t>
+          <t>16/07/2025</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>18</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -3099,163 +3119,185 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>Diesel</t>
+          <t>Petrol</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>497TC41HSY824995</t>
+          <t>1816512</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>MAT513055HFH08513</t>
+          <t>MA3EJKD1S00975237</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>435</t>
+          <t>1197</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>ML05Q6818</t>
+          <t>AS01DE8514</t>
         </is>
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>PIAGGIO APE APE AUTO BSIV DX DIESEL
-12
-R</t>
+          <t>MARUTI SUZ SWIFT DZIREVXI 1</t>
         </is>
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>3 Wheeled Vehicle For Carrying</t>
+          <t>Private Car</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>EAST KHASI HILLS</t>
+          <t>GUWAHATI</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>S RAM BASUMATARY</t>
         </is>
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AC14" t="inlineStr"/>
-      <c r="AD14" t="inlineStr"/>
+          <t>Father</t>
+        </is>
+      </c>
+      <c r="AC14" t="inlineStr">
+        <is>
+          <t>56Y</t>
+        </is>
+      </c>
+      <c r="AD14" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
       <c r="AE14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AF14" t="inlineStr">
         <is>
-          <t>5,773.00</t>
+          <t>3,416.00</t>
         </is>
       </c>
       <c r="AG14" t="inlineStr"/>
       <c r="AH14" t="inlineStr">
         <is>
-          <t>5,773.00</t>
+          <t>3,746.00</t>
         </is>
       </c>
       <c r="AI14" t="inlineStr">
         <is>
-          <t>5,773.00</t>
+          <t>4,945.00</t>
         </is>
       </c>
       <c r="AJ14" t="inlineStr">
         <is>
-          <t>5,773.00</t>
+          <t>4,945.00</t>
         </is>
       </c>
       <c r="AK14" t="inlineStr">
         <is>
-          <t>1,039.14</t>
+          <t>890.10</t>
         </is>
       </c>
       <c r="AL14" t="inlineStr">
         <is>
-          <t>6,812.00</t>
-        </is>
-      </c>
-      <c r="AM14" t="inlineStr"/>
-      <c r="AN14" t="inlineStr"/>
-      <c r="AO14" t="inlineStr"/>
-      <c r="AP14" t="inlineStr"/>
+          <t>5,835.00</t>
+        </is>
+      </c>
+      <c r="AM14" t="inlineStr">
+        <is>
+          <t>Bajaj Allianz General Insurance Co. Lt</t>
+        </is>
+      </c>
+      <c r="AN14" t="inlineStr">
+        <is>
+          <t>23344</t>
+        </is>
+      </c>
+      <c r="AO14" t="inlineStr">
+        <is>
+          <t>16/07/2024</t>
+        </is>
+      </c>
+      <c r="AP14" t="inlineStr">
+        <is>
+          <t>238,502</t>
+        </is>
+      </c>
       <c r="AQ14" t="inlineStr">
         <is>
-          <t>VD184108.pdf</t>
+          <t>VD192974.pdf</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>VD185093</t>
+          <t>VD193437</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>RAHUL PIMPALKAR</t>
+          <t>RAFIKUL ISLAM</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>PROP MAIN AGRO CHEMICALS, 116,1ST FLOOR 17/1</t>
+          <t>KALIAGAON, MAIN ROAD, Chirang, Bongaigaon, Asam,</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>9755013221</t>
+          <t>8638767151</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>DEEPAK.JOSHI_81@yahoo.com</t>
+          <t>sultanananarjina9@gmail.com</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t xml:space="preserve">Probus Insurance Broker Limited </t>
+          <t>Probus Insurance Broker Limited - BRR</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>15/07/2024</t>
+          <t>17/07/2024</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>15/07/2024</t>
+          <t>18/07/2024</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>14/07/2025</t>
+          <t>17/07/2025</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>18</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -3286,35 +3328,41 @@
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>Diesel</t>
+          <t>Petrol</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>1GDA330477</t>
+          <t>F8DN6227756</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>MBJBA3FS600820043</t>
+          <t>MA3EUA61S00E73519</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>2755</t>
+          <t>796</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>MP09WC6000</t>
-        </is>
-      </c>
-      <c r="W15" t="inlineStr"/>
+          <t>AS19N2391</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>MARUTI SUZ ALTOLX BS-IV
+12
+R</t>
+        </is>
+      </c>
       <c r="X15" t="inlineStr">
         <is>
           <t>Private Car</t>
@@ -3322,7 +3370,7 @@
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>INDORE</t>
+          <t>BONGAIGAON</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
@@ -3332,32 +3380,24 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>MRS PIMPALKAR</t>
+          <t>-</t>
         </is>
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>Wife</t>
-        </is>
-      </c>
-      <c r="AC15" t="inlineStr">
-        <is>
-          <t>45Y</t>
-        </is>
-      </c>
-      <c r="AD15" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AC15" t="inlineStr"/>
+      <c r="AD15" t="inlineStr"/>
       <c r="AE15" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AF15" t="inlineStr">
         <is>
-          <t>7,897.00</t>
+          <t>2,094.00</t>
         </is>
       </c>
       <c r="AG15" t="inlineStr">
@@ -3367,100 +3407,88 @@
       </c>
       <c r="AH15" t="inlineStr">
         <is>
-          <t>8,627.00</t>
+          <t>2,144.00</t>
         </is>
       </c>
       <c r="AI15" t="inlineStr">
         <is>
-          <t>66,539.00</t>
+          <t>2,144.00</t>
         </is>
       </c>
       <c r="AJ15" t="inlineStr">
         <is>
-          <t>66,539.00</t>
+          <t>2,144.00</t>
         </is>
       </c>
       <c r="AK15" t="inlineStr">
         <is>
-          <t>11,977.02</t>
+          <t>385.92</t>
         </is>
       </c>
       <c r="AL15" t="inlineStr">
         <is>
-          <t>78,516.00</t>
-        </is>
-      </c>
-      <c r="AM15" t="inlineStr">
-        <is>
-          <t>ICICI Lombard General Insurance Co. Lt</t>
-        </is>
-      </c>
-      <c r="AN15" t="inlineStr">
-        <is>
-          <t>3001</t>
-        </is>
-      </c>
-      <c r="AO15" t="inlineStr">
-        <is>
-          <t>14/07/2024</t>
-        </is>
-      </c>
-      <c r="AP15" t="inlineStr">
-        <is>
-          <t>1,875,000</t>
-        </is>
-      </c>
+          <t>2,530.00</t>
+        </is>
+      </c>
+      <c r="AM15" t="inlineStr"/>
+      <c r="AN15" t="inlineStr"/>
+      <c r="AO15" t="inlineStr"/>
+      <c r="AP15" t="inlineStr"/>
       <c r="AQ15" t="inlineStr">
         <is>
-          <t>VD185093.pdf</t>
+          <t>VD193437.pdf</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>VD186000</t>
+          <t>VD195890</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Mr. Happy Sharma</t>
+          <t>JASHUBHAI VITHALBHAI PATEL</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>S O SHAMSHER PARKASH 718 40 SA, 113 AMBALA</t>
+          <t>20, PATEL KHADKI,, SANKHEJ,, TA AND DIST -</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>8950482213</t>
+          <t>9409004876</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>h15063627@gmail.com</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr"/>
+          <t>shrijiconsultant@outlook.com</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Probus Insurance Broker Limited - BRR</t>
+        </is>
+      </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>15/07/2024</t>
+          <t>17/07/2024</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>16/07/2024</t>
+          <t>20/07/2024</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>15/07/2025</t>
+          <t>19/07/2025</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>24</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -3491,163 +3519,189 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>Diesel</t>
+          <t>Petrol</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>497TC92DXY823729</t>
+          <t>G12BN0525978</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>MAT457403C7D17506</t>
+          <t>MA3ERLF1S00548724</t>
         </is>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>395</t>
+          <t>1196</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>HR58A6323</t>
+          <t>GJ07DA5516</t>
         </is>
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>PIAGGIO APE CARGO D 600
-12
-R</t>
+          <t xml:space="preserve">MARUTI SUZ EECO5 STR WITH AC </t>
         </is>
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>Goods Carrying-Motorized 3 Wheelers</t>
+          <t>Private Car</t>
         </is>
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>YAMUNANAGAR</t>
+          <t>KHEDA</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>2012</t>
+          <t>2017</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MRS PATEL</t>
         </is>
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AC16" t="inlineStr"/>
-      <c r="AD16" t="inlineStr"/>
+          <t>Wife</t>
+        </is>
+      </c>
+      <c r="AC16" t="inlineStr">
+        <is>
+          <t>74Y</t>
+        </is>
+      </c>
+      <c r="AD16" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
       <c r="AE16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="AF16" t="inlineStr">
         <is>
-          <t>4,492.00</t>
-        </is>
-      </c>
-      <c r="AG16" t="inlineStr"/>
+          <t>3,416.00</t>
+        </is>
+      </c>
+      <c r="AG16" t="inlineStr">
+        <is>
+          <t>50.00</t>
+        </is>
+      </c>
       <c r="AH16" t="inlineStr">
         <is>
-          <t>4,492.00</t>
+          <t>4,106.00</t>
         </is>
       </c>
       <c r="AI16" t="inlineStr">
         <is>
-          <t>4,492.00</t>
+          <t>8,735.00</t>
         </is>
       </c>
       <c r="AJ16" t="inlineStr">
         <is>
-          <t>4,492.00</t>
+          <t>8,735.00</t>
         </is>
       </c>
       <c r="AK16" t="inlineStr">
         <is>
-          <t>539.04</t>
+          <t>1,572.30</t>
         </is>
       </c>
       <c r="AL16" t="inlineStr">
         <is>
-          <t>5,031.00</t>
-        </is>
-      </c>
-      <c r="AM16" t="inlineStr"/>
-      <c r="AN16" t="inlineStr"/>
-      <c r="AO16" t="inlineStr"/>
-      <c r="AP16" t="inlineStr"/>
+          <t>10,307.00</t>
+        </is>
+      </c>
+      <c r="AM16" t="inlineStr">
+        <is>
+          <t>Liberty Videocon General Insurance Co. Lt</t>
+        </is>
+      </c>
+      <c r="AN16" t="inlineStr">
+        <is>
+          <t>2011400402237004007000</t>
+        </is>
+      </c>
+      <c r="AO16" t="inlineStr">
+        <is>
+          <t>19/07/2024</t>
+        </is>
+      </c>
+      <c r="AP16" t="inlineStr">
+        <is>
+          <t>171,700</t>
+        </is>
+      </c>
       <c r="AQ16" t="inlineStr">
         <is>
-          <t>VD186000.pdf</t>
+          <t>VD195890.pdf</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>VD188386</t>
+          <t>VD196464</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Pallab Dutta</t>
+          <t>Mr. Jamil Khan</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>No Mati Nawhalia Gaon No Mati, Nazira Sibsagar Sibsagar,</t>
+          <t>0 0, Chambal Sagar Colony Near Nura, Ujjain, Madhya</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>8638226230</t>
+          <t>9685236964</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>parthaassam1234@gmail.com</t>
+          <t>mahendrasharma8286@gmail.com</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t xml:space="preserve">Probus Insurance Broker Limited </t>
+          <t>Probus Insurance Broker Limited-BRR</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>15/07/2024</t>
+          <t>17/07/2024</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>15/07/2024</t>
+          <t>20/07/2024</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>14/07/2025</t>
+          <t>19/07/2025</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>23</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -3678,57 +3732,59 @@
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>Petrol</t>
+          <t>Diesel</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>K12NN9012461</t>
+          <t>R3A2279659</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>0MA3CZFB3SLG670811</t>
+          <t>MBX0000ZFPB650839</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>1197</t>
+          <t>436</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>AS23Z9088</t>
+          <t>MP13R2138</t>
         </is>
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>MARUTI SUZ SWIFT DZIREVXI 1</t>
+          <t>PIAGGIO APE D3S BS-III RICKSHAW PASSENGER
+12
+R</t>
         </is>
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>Private Car</t>
+          <t>3 Wheeled Vehicle For Carrying</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>TINSUKIA</t>
+          <t>UJJAIN</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2013</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>Bharati Gohain</t>
+          <t>Mrs Khan</t>
         </is>
       </c>
       <c r="AB17" t="inlineStr">
@@ -3738,7 +3794,7 @@
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>30Y</t>
+          <t>43Y</t>
         </is>
       </c>
       <c r="AD17" t="inlineStr">
@@ -3748,99 +3804,103 @@
       </c>
       <c r="AE17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>314</t>
         </is>
       </c>
       <c r="AF17" t="inlineStr">
         <is>
-          <t>3,416.00</t>
+          <t>5,773.00</t>
         </is>
       </c>
       <c r="AG17" t="inlineStr"/>
       <c r="AH17" t="inlineStr">
         <is>
-          <t>3,746.00</t>
+          <t>6,153.00</t>
         </is>
       </c>
       <c r="AI17" t="inlineStr">
         <is>
-          <t>3,746.00</t>
+          <t>6,467.00</t>
         </is>
       </c>
       <c r="AJ17" t="inlineStr">
         <is>
-          <t>3,746.00</t>
+          <t>6,467.00</t>
         </is>
       </c>
       <c r="AK17" t="inlineStr">
         <is>
-          <t>674.28</t>
+          <t>1,164.06</t>
         </is>
       </c>
       <c r="AL17" t="inlineStr">
         <is>
-          <t>4,420.00</t>
+          <t>7,631.00</t>
         </is>
       </c>
       <c r="AM17" t="inlineStr"/>
       <c r="AN17" t="inlineStr"/>
       <c r="AO17" t="inlineStr"/>
-      <c r="AP17" t="inlineStr"/>
+      <c r="AP17" t="inlineStr">
+        <is>
+          <t>35,000</t>
+        </is>
+      </c>
       <c r="AQ17" t="inlineStr">
         <is>
-          <t>VD188386 (1).pdf</t>
+          <t>VD196464 (1).pdf</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>VD188386</t>
+          <t>VD197099</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Pallab Dutta</t>
+          <t>Mr. Sunil Kumar</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>No Mati Nawhalia Gaon No Mati, Nazira Sibsagar Sibsagar,</t>
+          <t>H.NO 163, ISAITOLA TH- PREM NAGAR, Jhansi, Uttar</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>8638226230</t>
+          <t>7007950720</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>parthaassam1234@gmail.com</t>
+          <t>MDWIVEDI18@GMAIL.COM</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Probus Insurance Broker Limited </t>
+          <t>Probus Insurance Broker Limited-BRR</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>15/07/2024</t>
+          <t>18/07/2024</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>15/07/2024</t>
+          <t>23/07/2024</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>14/07/2025</t>
+          <t>22/07/2025</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>09</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -3871,74 +3931,68 @@
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>Petrol</t>
+          <t>Diesel</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>K12NN9012461</t>
+          <t>P1K4069998</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>0MA3CZFB3SLG670811</t>
+          <t>MBX0000ZBNK401649</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>1197</t>
+          <t>395</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>AS23Z9088</t>
+          <t>UP93T8507</t>
         </is>
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>MARUTI SUZ SWIFT DZIREVXI 1</t>
+          <t>PIAGGIO APE LD
+12
+R</t>
         </is>
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>Private Car</t>
+          <t>Goods Carrying-Motorized 3 Wheelers</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>TINSUKIA</t>
+          <t>JHANSI</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2011</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>Bharati Gohain</t>
+          <t>-</t>
         </is>
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>Wife</t>
-        </is>
-      </c>
-      <c r="AC18" t="inlineStr">
-        <is>
-          <t>30Y</t>
-        </is>
-      </c>
-      <c r="AD18" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AC18" t="inlineStr"/>
+      <c r="AD18" t="inlineStr"/>
       <c r="AE18" t="inlineStr">
         <is>
           <t>0</t>
@@ -3946,90 +4000,102 @@
       </c>
       <c r="AF18" t="inlineStr">
         <is>
-          <t>3,416.00</t>
+          <t>4,492.00</t>
         </is>
       </c>
       <c r="AG18" t="inlineStr"/>
       <c r="AH18" t="inlineStr">
         <is>
-          <t>3,746.00</t>
+          <t>4,542.00</t>
         </is>
       </c>
       <c r="AI18" t="inlineStr">
         <is>
-          <t>3,746.00</t>
+          <t>4,542.00</t>
         </is>
       </c>
       <c r="AJ18" t="inlineStr">
         <is>
-          <t>3,746.00</t>
+          <t>4,542.00</t>
         </is>
       </c>
       <c r="AK18" t="inlineStr">
         <is>
-          <t>674.28</t>
+          <t>548.04</t>
         </is>
       </c>
       <c r="AL18" t="inlineStr">
         <is>
-          <t>4,420.00</t>
-        </is>
-      </c>
-      <c r="AM18" t="inlineStr"/>
+          <t>5,090.00</t>
+        </is>
+      </c>
+      <c r="AM18" t="inlineStr">
+        <is>
+          <t>Universal Sompo General Insurance Co. Lt</t>
+        </is>
+      </c>
       <c r="AN18" t="inlineStr"/>
-      <c r="AO18" t="inlineStr"/>
+      <c r="AO18" t="inlineStr">
+        <is>
+          <t>22/07/2024</t>
+        </is>
+      </c>
       <c r="AP18" t="inlineStr"/>
       <c r="AQ18" t="inlineStr">
         <is>
-          <t>VD188386.pdf</t>
+          <t>VD197099 (1).pdf</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>VD192641</t>
+          <t>VD197099</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Mr. ASHRAFUL SK</t>
+          <t>Mr. Sunil Kumar</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>THANAR PARA, GHOSH PARA, GHOSHPARA, Nadia,</t>
+          <t>H.NO 163, ISAITOLA TH- PREM NAGAR, Jhansi, Uttar</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>9734670525</t>
+          <t>7007950720</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>PROBUS.BAUL@GMAIL.COM</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr"/>
+          <t>MDWIVEDI18@GMAIL.COM</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Probus Insurance Broker Limited-BRR</t>
+        </is>
+      </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>16/07/2024</t>
+          <t>18/07/2024</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>19/07/2024</t>
+          <t>23/07/2024</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>18/07/2025</t>
+          <t>22/07/2025</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>09</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -4065,174 +4131,166 @@
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>15CRAIL5BYXS20627</t>
+          <t>P1K4069998</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>MAT535073MYB10870</t>
+          <t>MBX0000ZBNK401649</t>
         </is>
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="U19" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>395</t>
+        </is>
+      </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>WB51C3917</t>
+          <t>UP93T8507</t>
         </is>
       </c>
       <c r="W19" t="inlineStr">
         <is>
-          <t>TATA INTRA V30 BSVI
+          <t>PIAGGIO APE LD
 12
 R</t>
         </is>
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>Goods Carrying-Public Carriers (Other</t>
+          <t>Goods Carrying-Motorized 3 Wheelers</t>
         </is>
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>NADIA</t>
+          <t>JHANSI</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2011</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>MRS SK</t>
+          <t>-</t>
         </is>
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>Wife</t>
-        </is>
-      </c>
-      <c r="AC19" t="inlineStr">
-        <is>
-          <t>31Y</t>
-        </is>
-      </c>
-      <c r="AD19" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AC19" t="inlineStr"/>
+      <c r="AD19" t="inlineStr"/>
       <c r="AE19" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AF19" t="inlineStr">
         <is>
-          <t>16,049.00</t>
+          <t>4,492.00</t>
         </is>
       </c>
       <c r="AG19" t="inlineStr"/>
       <c r="AH19" t="inlineStr">
         <is>
-          <t>16,429.00</t>
+          <t>4,542.00</t>
         </is>
       </c>
       <c r="AI19" t="inlineStr">
         <is>
-          <t>19,393.00</t>
+          <t>4,542.00</t>
         </is>
       </c>
       <c r="AJ19" t="inlineStr">
         <is>
-          <t>19,393.00</t>
+          <t>4,542.00</t>
         </is>
       </c>
       <c r="AK19" t="inlineStr">
         <is>
-          <t>2,527.80</t>
+          <t>548.04</t>
         </is>
       </c>
       <c r="AL19" t="inlineStr">
         <is>
-          <t>21,921.00</t>
+          <t>5,090.00</t>
         </is>
       </c>
       <c r="AM19" t="inlineStr">
         <is>
-          <t>Liberty Videocon General Insurance Co. Lt</t>
-        </is>
-      </c>
-      <c r="AN19" t="inlineStr">
-        <is>
-          <t>2013301407237000767000</t>
-        </is>
-      </c>
+          <t>Universal Sompo General Insurance Co. Lt</t>
+        </is>
+      </c>
+      <c r="AN19" t="inlineStr"/>
       <c r="AO19" t="inlineStr">
         <is>
-          <t>18/07/2024</t>
-        </is>
-      </c>
-      <c r="AP19" t="inlineStr">
-        <is>
-          <t>533,400</t>
-        </is>
-      </c>
+          <t>22/07/2024</t>
+        </is>
+      </c>
+      <c r="AP19" t="inlineStr"/>
       <c r="AQ19" t="inlineStr">
         <is>
-          <t>VD192641 (1).pdf</t>
+          <t>VD197099.pdf</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>VD192641</t>
+          <t>VD197131</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Mr. ASHRAFUL SK</t>
+          <t>Mr. SURESH SINGH</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>THANAR PARA, GHOSH PARA, GHOSHPARA, Nadia,</t>
+          <t>S/O KAN SINGH, R/O  RAIDHANA, TEH- LADNUN,,</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>9734670525</t>
+          <t>9828245791</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>PROBUS.BAUL@GMAIL.COM</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr"/>
+          <t>GOPALRATHORE25061989@GMAIL.COM</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Probus Insurance Broker Limited-BRR</t>
+        </is>
+      </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>16/07/2024</t>
+          <t>18/07/2024</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>19/07/2024</t>
+          <t>24/07/2024</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>18/07/2025</t>
+          <t>23/07/2025</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>08</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -4268,50 +4326,54 @@
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>15CRAIL5BYXS20627</t>
+          <t>A3G1633918</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>MAT535073MYB10870</t>
+          <t>MBX000AWF2G309571</t>
         </is>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="U20" t="inlineStr"/>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>436</t>
+        </is>
+      </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>WB51C3917</t>
+          <t>RJ37PA3237</t>
         </is>
       </c>
       <c r="W20" t="inlineStr">
         <is>
-          <t>TATA INTRA V30 BSVI
+          <t>PIAGGIO APE XTRA DXL
 12
 R</t>
         </is>
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t>Goods Carrying-Public Carriers (Other</t>
+          <t>3 Wheeled Vehicle For Carrying</t>
         </is>
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>NADIA</t>
+          <t>DIDWANA</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>MRS SK</t>
+          <t>RATANA KANWAR</t>
         </is>
       </c>
       <c r="AB20" t="inlineStr">
@@ -4331,115 +4393,115 @@
       </c>
       <c r="AE20" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>795</t>
         </is>
       </c>
       <c r="AF20" t="inlineStr">
         <is>
-          <t>16,049.00</t>
+          <t>5,773.00</t>
         </is>
       </c>
       <c r="AG20" t="inlineStr"/>
       <c r="AH20" t="inlineStr">
         <is>
-          <t>16,429.00</t>
+          <t>6,153.00</t>
         </is>
       </c>
       <c r="AI20" t="inlineStr">
         <is>
-          <t>19,393.00</t>
+          <t>6,948.00</t>
         </is>
       </c>
       <c r="AJ20" t="inlineStr">
         <is>
-          <t>19,393.00</t>
+          <t>6,948.00</t>
         </is>
       </c>
       <c r="AK20" t="inlineStr">
         <is>
-          <t>2,527.80</t>
+          <t>1,250.64</t>
         </is>
       </c>
       <c r="AL20" t="inlineStr">
         <is>
-          <t>21,921.00</t>
+          <t>8,199.00</t>
         </is>
       </c>
       <c r="AM20" t="inlineStr">
         <is>
-          <t>Liberty Videocon General Insurance Co. Lt</t>
+          <t>Tata AIG General Insurance Co. Lt</t>
         </is>
       </c>
       <c r="AN20" t="inlineStr">
         <is>
-          <t>2013301407237000767000</t>
+          <t>630073197700</t>
         </is>
       </c>
       <c r="AO20" t="inlineStr">
         <is>
-          <t>18/07/2024</t>
+          <t>23/07/2024</t>
         </is>
       </c>
       <c r="AP20" t="inlineStr">
         <is>
-          <t>533,400</t>
+          <t>228,480</t>
         </is>
       </c>
       <c r="AQ20" t="inlineStr">
         <is>
-          <t>VD192641.pdf</t>
+          <t>VD197131.pdf</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>VD192974</t>
+          <t>VD199152</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>JAGADISH BASUMATARY</t>
+          <t>Mr. MANSHA RAM</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>H NO 52, FATASIL AMBARI, KAMRUP, Kamrup, Asam,</t>
+          <t>S O, LATE SHRI RAM, DHANNEPUR, Jaunpur, Uttar</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>9957055257</t>
+          <t>9984230712</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>WBASUMATARY13@GMAIL.COM</t>
+          <t>priyanshujaunpur@gmail.com</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Probus Insurance Broker Limited </t>
+          <t>Probus Insurance Broker Limited-BRR</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>16/07/2024</t>
+          <t>18/07/2024</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>17/07/2024</t>
+          <t>21/07/2024</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>16/07/2025</t>
+          <t>20/07/2025</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>09</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -4470,47 +4532,49 @@
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>Petrol</t>
+          <t>Diesel</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>1816512</t>
+          <t>S6F8578871</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>MA3EJKD1S00975237</t>
+          <t>1212121ZFUF310430</t>
         </is>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>1197</t>
+          <t>436</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>AS01DE8514</t>
+          <t>UP62AT5369</t>
         </is>
       </c>
       <c r="W21" t="inlineStr">
         <is>
-          <t>MARUTI SUZ SWIFT DZIREVXI 1</t>
+          <t>PIAGGIO APE AUTO PLUS
+12
+R</t>
         </is>
       </c>
       <c r="X21" t="inlineStr">
         <is>
-          <t>Private Car</t>
+          <t>3 Wheeled Vehicle For Carrying</t>
         </is>
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>GUWAHATI</t>
+          <t>JAUNPUR</t>
         </is>
       </c>
       <c r="Z21" t="inlineStr">
@@ -4520,17 +4584,17 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>S RAM BASUMATARY</t>
+          <t>Jay Shankar</t>
         </is>
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>Father</t>
+          <t>Child</t>
         </is>
       </c>
       <c r="AC21" t="inlineStr">
         <is>
-          <t>56Y</t>
+          <t>36Y</t>
         </is>
       </c>
       <c r="AD21" t="inlineStr">
@@ -4540,115 +4604,103 @@
       </c>
       <c r="AE21" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>245</t>
         </is>
       </c>
       <c r="AF21" t="inlineStr">
         <is>
-          <t>3,416.00</t>
+          <t>5,773.00</t>
         </is>
       </c>
       <c r="AG21" t="inlineStr"/>
       <c r="AH21" t="inlineStr">
         <is>
-          <t>3,746.00</t>
+          <t>6,103.00</t>
         </is>
       </c>
       <c r="AI21" t="inlineStr">
         <is>
-          <t>4,945.00</t>
+          <t>6,348.00</t>
         </is>
       </c>
       <c r="AJ21" t="inlineStr">
         <is>
-          <t>4,945.00</t>
+          <t>6,348.00</t>
         </is>
       </c>
       <c r="AK21" t="inlineStr">
         <is>
-          <t>890.10</t>
+          <t>1,142.64</t>
         </is>
       </c>
       <c r="AL21" t="inlineStr">
         <is>
-          <t>5,835.00</t>
-        </is>
-      </c>
-      <c r="AM21" t="inlineStr">
-        <is>
-          <t>Bajaj Allianz General Insurance Co. Lt</t>
-        </is>
-      </c>
-      <c r="AN21" t="inlineStr">
-        <is>
-          <t>23344</t>
-        </is>
-      </c>
-      <c r="AO21" t="inlineStr">
-        <is>
-          <t>16/07/2024</t>
-        </is>
-      </c>
+          <t>7,491.00</t>
+        </is>
+      </c>
+      <c r="AM21" t="inlineStr"/>
+      <c r="AN21" t="inlineStr"/>
+      <c r="AO21" t="inlineStr"/>
       <c r="AP21" t="inlineStr">
         <is>
-          <t>238,502</t>
+          <t>74,000</t>
         </is>
       </c>
       <c r="AQ21" t="inlineStr">
         <is>
-          <t>VD192974.pdf</t>
+          <t>VD199152.pdf</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>VD193437</t>
+          <t>VD199469</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>RAFIKUL ISLAM</t>
+          <t>Mr. SANTOSH KUMAR</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>KALIAGAON, MAIN ROAD, Chirang, Bongaigaon, Asam,</t>
+          <t>C O RAM PUKAR KANYA PARISAR RO, ARMA LAKDI</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>8638767151</t>
+          <t>8839482440</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>sultanananarjina9@gmail.com</t>
+          <t>THEBROKERS09@GMAIL.COM</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Probus Insurance Broker Limited </t>
+          <t>Probus Insurance Broker Limited-BRR</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>17/07/2024</t>
+          <t>18/07/2024</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>18/07/2024</t>
+          <t>19/07/2024</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>17/07/2025</t>
+          <t>18/07/2025</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>22</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -4679,54 +4731,54 @@
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>Petrol</t>
+          <t>Diesel</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>F8DN6227756</t>
+          <t>W1K3240451</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>MA3EUA61S00E73519</t>
+          <t>0O0O0O0ZFNK389987</t>
         </is>
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>796</t>
+          <t>436</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>AS19N2391</t>
+          <t>CG15AD0433</t>
         </is>
       </c>
       <c r="W22" t="inlineStr">
         <is>
-          <t>MARUTI SUZ ALTOLX BS-IV
+          <t>PIAGGIO APE D3S BS-III RICKSHAW PASSENGER
 12
 R</t>
         </is>
       </c>
       <c r="X22" t="inlineStr">
         <is>
-          <t>Private Car</t>
+          <t>3 Wheeled Vehicle For Carrying</t>
         </is>
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>BONGAIGAON</t>
+          <t>AMBIKAPUR</t>
         </is>
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2011</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -4748,37 +4800,33 @@
       </c>
       <c r="AF22" t="inlineStr">
         <is>
-          <t>2,094.00</t>
-        </is>
-      </c>
-      <c r="AG22" t="inlineStr">
-        <is>
-          <t>50.00</t>
-        </is>
-      </c>
+          <t>5,773.00</t>
+        </is>
+      </c>
+      <c r="AG22" t="inlineStr"/>
       <c r="AH22" t="inlineStr">
         <is>
-          <t>2,144.00</t>
+          <t>5,823.00</t>
         </is>
       </c>
       <c r="AI22" t="inlineStr">
         <is>
-          <t>2,144.00</t>
+          <t>5,823.00</t>
         </is>
       </c>
       <c r="AJ22" t="inlineStr">
         <is>
-          <t>2,144.00</t>
+          <t>5,823.00</t>
         </is>
       </c>
       <c r="AK22" t="inlineStr">
         <is>
-          <t>385.92</t>
+          <t>1,048.14</t>
         </is>
       </c>
       <c r="AL22" t="inlineStr">
         <is>
-          <t>2,530.00</t>
+          <t>6,871.00</t>
         </is>
       </c>
       <c r="AM22" t="inlineStr"/>
@@ -4787,1983 +4835,7 @@
       <c r="AP22" t="inlineStr"/>
       <c r="AQ22" t="inlineStr">
         <is>
-          <t>VD193437.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>VD195890</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>JASHUBHAI VITHALBHAI PATEL</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>20, PATEL KHADKI,, SANKHEJ,, TA AND DIST -</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>9409004876</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>shrijiconsultant@outlook.com</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Probus Insurance Broker Limited </t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>17/07/2024</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>20/07/2024</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>19/07/2025</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>Andheri Branch Office</t>
-        </is>
-      </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>27AABCF0191R2Z8</t>
-        </is>
-      </c>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr">
-        <is>
-          <t>General Insurance Service</t>
-        </is>
-      </c>
-      <c r="Q23" t="inlineStr">
-        <is>
-          <t>Petrol</t>
-        </is>
-      </c>
-      <c r="R23" t="inlineStr">
-        <is>
-          <t>G12BN0525978</t>
-        </is>
-      </c>
-      <c r="S23" t="inlineStr">
-        <is>
-          <t>MA3ERLF1S00548724</t>
-        </is>
-      </c>
-      <c r="T23" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="U23" t="inlineStr">
-        <is>
-          <t>1196</t>
-        </is>
-      </c>
-      <c r="V23" t="inlineStr">
-        <is>
-          <t>GJ07DA5516</t>
-        </is>
-      </c>
-      <c r="W23" t="inlineStr">
-        <is>
-          <t xml:space="preserve">MARUTI SUZ EECO5 STR WITH AC </t>
-        </is>
-      </c>
-      <c r="X23" t="inlineStr">
-        <is>
-          <t>Private Car</t>
-        </is>
-      </c>
-      <c r="Y23" t="inlineStr">
-        <is>
-          <t>KHEDA</t>
-        </is>
-      </c>
-      <c r="Z23" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
-      </c>
-      <c r="AA23" t="inlineStr">
-        <is>
-          <t>MRS PATEL</t>
-        </is>
-      </c>
-      <c r="AB23" t="inlineStr">
-        <is>
-          <t>Wife</t>
-        </is>
-      </c>
-      <c r="AC23" t="inlineStr">
-        <is>
-          <t>74Y</t>
-        </is>
-      </c>
-      <c r="AD23" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="AE23" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="AF23" t="inlineStr">
-        <is>
-          <t>3,416.00</t>
-        </is>
-      </c>
-      <c r="AG23" t="inlineStr">
-        <is>
-          <t>50.00</t>
-        </is>
-      </c>
-      <c r="AH23" t="inlineStr">
-        <is>
-          <t>4,106.00</t>
-        </is>
-      </c>
-      <c r="AI23" t="inlineStr">
-        <is>
-          <t>8,735.00</t>
-        </is>
-      </c>
-      <c r="AJ23" t="inlineStr">
-        <is>
-          <t>8,735.00</t>
-        </is>
-      </c>
-      <c r="AK23" t="inlineStr">
-        <is>
-          <t>1,572.30</t>
-        </is>
-      </c>
-      <c r="AL23" t="inlineStr">
-        <is>
-          <t>10,307.00</t>
-        </is>
-      </c>
-      <c r="AM23" t="inlineStr">
-        <is>
-          <t>Liberty Videocon General Insurance Co. Lt</t>
-        </is>
-      </c>
-      <c r="AN23" t="inlineStr">
-        <is>
-          <t>2011400402237004007000</t>
-        </is>
-      </c>
-      <c r="AO23" t="inlineStr">
-        <is>
-          <t>19/07/2024</t>
-        </is>
-      </c>
-      <c r="AP23" t="inlineStr">
-        <is>
-          <t>171,700</t>
-        </is>
-      </c>
-      <c r="AQ23" t="inlineStr">
-        <is>
-          <t>VD195890.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>VD196464</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Mr. Jamil Khan</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>0 0, Chambal Sagar Colony Near Nura, Ujjain, Madhya</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>9685236964</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>mahendrasharma8286@gmail.com</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>17/07/2024</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>20/07/2024</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>19/07/2025</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>Andheri Branch Office</t>
-        </is>
-      </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t>27AABCF0191R2Z8</t>
-        </is>
-      </c>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr">
-        <is>
-          <t>General Insurance Service</t>
-        </is>
-      </c>
-      <c r="Q24" t="inlineStr">
-        <is>
-          <t>Diesel</t>
-        </is>
-      </c>
-      <c r="R24" t="inlineStr">
-        <is>
-          <t>R3A2279659</t>
-        </is>
-      </c>
-      <c r="S24" t="inlineStr">
-        <is>
-          <t>MBX0000ZFPB650839</t>
-        </is>
-      </c>
-      <c r="T24" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="U24" t="inlineStr">
-        <is>
-          <t>436</t>
-        </is>
-      </c>
-      <c r="V24" t="inlineStr">
-        <is>
-          <t>MP13R2138</t>
-        </is>
-      </c>
-      <c r="W24" t="inlineStr">
-        <is>
-          <t>PIAGGIO APE D3S BS-III RICKSHAW PASSENGER
-12
-R</t>
-        </is>
-      </c>
-      <c r="X24" t="inlineStr">
-        <is>
-          <t>3 Wheeled Vehicle For Carrying</t>
-        </is>
-      </c>
-      <c r="Y24" t="inlineStr">
-        <is>
-          <t>UJJAIN</t>
-        </is>
-      </c>
-      <c r="Z24" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-      <c r="AA24" t="inlineStr">
-        <is>
-          <t>Mrs Khan</t>
-        </is>
-      </c>
-      <c r="AB24" t="inlineStr">
-        <is>
-          <t>Wife</t>
-        </is>
-      </c>
-      <c r="AC24" t="inlineStr">
-        <is>
-          <t>43Y</t>
-        </is>
-      </c>
-      <c r="AD24" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="AE24" t="inlineStr">
-        <is>
-          <t>314</t>
-        </is>
-      </c>
-      <c r="AF24" t="inlineStr">
-        <is>
-          <t>5,773.00</t>
-        </is>
-      </c>
-      <c r="AG24" t="inlineStr"/>
-      <c r="AH24" t="inlineStr">
-        <is>
-          <t>6,153.00</t>
-        </is>
-      </c>
-      <c r="AI24" t="inlineStr">
-        <is>
-          <t>6,467.00</t>
-        </is>
-      </c>
-      <c r="AJ24" t="inlineStr">
-        <is>
-          <t>6,467.00</t>
-        </is>
-      </c>
-      <c r="AK24" t="inlineStr">
-        <is>
-          <t>1,164.06</t>
-        </is>
-      </c>
-      <c r="AL24" t="inlineStr">
-        <is>
-          <t>7,631.00</t>
-        </is>
-      </c>
-      <c r="AM24" t="inlineStr"/>
-      <c r="AN24" t="inlineStr"/>
-      <c r="AO24" t="inlineStr"/>
-      <c r="AP24" t="inlineStr">
-        <is>
-          <t>35,000</t>
-        </is>
-      </c>
-      <c r="AQ24" t="inlineStr">
-        <is>
-          <t>VD196464 (1).pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>VD196464</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Mr. Jamil Khan</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>0 0, Chambal Sagar Colony Near Nura, Ujjain, Madhya</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>9685236964</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>mahendrasharma8286@gmail.com</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>17/07/2024</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>20/07/2024</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>19/07/2025</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>Andheri Branch Office</t>
-        </is>
-      </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="N25" t="inlineStr">
-        <is>
-          <t>27AABCF0191R2Z8</t>
-        </is>
-      </c>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr">
-        <is>
-          <t>General Insurance Service</t>
-        </is>
-      </c>
-      <c r="Q25" t="inlineStr">
-        <is>
-          <t>Diesel</t>
-        </is>
-      </c>
-      <c r="R25" t="inlineStr">
-        <is>
-          <t>R3A2279659</t>
-        </is>
-      </c>
-      <c r="S25" t="inlineStr">
-        <is>
-          <t>MBX0000ZFPB650839</t>
-        </is>
-      </c>
-      <c r="T25" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="U25" t="inlineStr">
-        <is>
-          <t>436</t>
-        </is>
-      </c>
-      <c r="V25" t="inlineStr">
-        <is>
-          <t>MP13R2138</t>
-        </is>
-      </c>
-      <c r="W25" t="inlineStr">
-        <is>
-          <t>PIAGGIO APE D3S BS-III RICKSHAW PASSENGER
-12
-R</t>
-        </is>
-      </c>
-      <c r="X25" t="inlineStr">
-        <is>
-          <t>3 Wheeled Vehicle For Carrying</t>
-        </is>
-      </c>
-      <c r="Y25" t="inlineStr">
-        <is>
-          <t>UJJAIN</t>
-        </is>
-      </c>
-      <c r="Z25" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-      <c r="AA25" t="inlineStr">
-        <is>
-          <t>Mrs Khan</t>
-        </is>
-      </c>
-      <c r="AB25" t="inlineStr">
-        <is>
-          <t>Wife</t>
-        </is>
-      </c>
-      <c r="AC25" t="inlineStr">
-        <is>
-          <t>43Y</t>
-        </is>
-      </c>
-      <c r="AD25" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="AE25" t="inlineStr">
-        <is>
-          <t>314</t>
-        </is>
-      </c>
-      <c r="AF25" t="inlineStr">
-        <is>
-          <t>5,773.00</t>
-        </is>
-      </c>
-      <c r="AG25" t="inlineStr"/>
-      <c r="AH25" t="inlineStr">
-        <is>
-          <t>6,153.00</t>
-        </is>
-      </c>
-      <c r="AI25" t="inlineStr">
-        <is>
-          <t>6,467.00</t>
-        </is>
-      </c>
-      <c r="AJ25" t="inlineStr">
-        <is>
-          <t>6,467.00</t>
-        </is>
-      </c>
-      <c r="AK25" t="inlineStr">
-        <is>
-          <t>1,164.06</t>
-        </is>
-      </c>
-      <c r="AL25" t="inlineStr">
-        <is>
-          <t>7,631.00</t>
-        </is>
-      </c>
-      <c r="AM25" t="inlineStr"/>
-      <c r="AN25" t="inlineStr"/>
-      <c r="AO25" t="inlineStr"/>
-      <c r="AP25" t="inlineStr">
-        <is>
-          <t>35,000</t>
-        </is>
-      </c>
-      <c r="AQ25" t="inlineStr">
-        <is>
-          <t>VD196464.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>VD197099</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Mr. Sunil Kumar</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>H.NO 163, ISAITOLA TH- PREM NAGAR, Jhansi, Uttar</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>7007950720</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>MDWIVEDI18@GMAIL.COM</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>18/07/2024</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>23/07/2024</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>22/07/2025</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>09</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>Andheri Branch Office</t>
-        </is>
-      </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="N26" t="inlineStr">
-        <is>
-          <t>27AABCF0191R2Z8</t>
-        </is>
-      </c>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr">
-        <is>
-          <t>General Insurance Service</t>
-        </is>
-      </c>
-      <c r="Q26" t="inlineStr">
-        <is>
-          <t>Diesel</t>
-        </is>
-      </c>
-      <c r="R26" t="inlineStr">
-        <is>
-          <t>P1K4069998</t>
-        </is>
-      </c>
-      <c r="S26" t="inlineStr">
-        <is>
-          <t>MBX0000ZBNK401649</t>
-        </is>
-      </c>
-      <c r="T26" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="U26" t="inlineStr">
-        <is>
-          <t>395</t>
-        </is>
-      </c>
-      <c r="V26" t="inlineStr">
-        <is>
-          <t>UP93T8507</t>
-        </is>
-      </c>
-      <c r="W26" t="inlineStr">
-        <is>
-          <t>PIAGGIO APE LD
-12
-R</t>
-        </is>
-      </c>
-      <c r="X26" t="inlineStr">
-        <is>
-          <t>Goods Carrying-Motorized 3 Wheelers</t>
-        </is>
-      </c>
-      <c r="Y26" t="inlineStr">
-        <is>
-          <t>JHANSI</t>
-        </is>
-      </c>
-      <c r="Z26" t="inlineStr">
-        <is>
-          <t>2011</t>
-        </is>
-      </c>
-      <c r="AA26" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AB26" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AC26" t="inlineStr"/>
-      <c r="AD26" t="inlineStr"/>
-      <c r="AE26" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF26" t="inlineStr">
-        <is>
-          <t>4,492.00</t>
-        </is>
-      </c>
-      <c r="AG26" t="inlineStr"/>
-      <c r="AH26" t="inlineStr">
-        <is>
-          <t>4,542.00</t>
-        </is>
-      </c>
-      <c r="AI26" t="inlineStr">
-        <is>
-          <t>4,542.00</t>
-        </is>
-      </c>
-      <c r="AJ26" t="inlineStr">
-        <is>
-          <t>4,542.00</t>
-        </is>
-      </c>
-      <c r="AK26" t="inlineStr">
-        <is>
-          <t>548.04</t>
-        </is>
-      </c>
-      <c r="AL26" t="inlineStr">
-        <is>
-          <t>5,090.00</t>
-        </is>
-      </c>
-      <c r="AM26" t="inlineStr">
-        <is>
-          <t>Universal Sompo General Insurance Co. Lt</t>
-        </is>
-      </c>
-      <c r="AN26" t="inlineStr"/>
-      <c r="AO26" t="inlineStr">
-        <is>
-          <t>22/07/2024</t>
-        </is>
-      </c>
-      <c r="AP26" t="inlineStr"/>
-      <c r="AQ26" t="inlineStr">
-        <is>
-          <t>VD197099 (1).pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>VD197099</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Mr. Sunil Kumar</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>H.NO 163, ISAITOLA TH- PREM NAGAR, Jhansi, Uttar</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>7007950720</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>MDWIVEDI18@GMAIL.COM</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>18/07/2024</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>23/07/2024</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>22/07/2025</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>09</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>Andheri Branch Office</t>
-        </is>
-      </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>27AABCF0191R2Z8</t>
-        </is>
-      </c>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr">
-        <is>
-          <t>General Insurance Service</t>
-        </is>
-      </c>
-      <c r="Q27" t="inlineStr">
-        <is>
-          <t>Diesel</t>
-        </is>
-      </c>
-      <c r="R27" t="inlineStr">
-        <is>
-          <t>P1K4069998</t>
-        </is>
-      </c>
-      <c r="S27" t="inlineStr">
-        <is>
-          <t>MBX0000ZBNK401649</t>
-        </is>
-      </c>
-      <c r="T27" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="U27" t="inlineStr">
-        <is>
-          <t>395</t>
-        </is>
-      </c>
-      <c r="V27" t="inlineStr">
-        <is>
-          <t>UP93T8507</t>
-        </is>
-      </c>
-      <c r="W27" t="inlineStr">
-        <is>
-          <t>PIAGGIO APE LD
-12
-R</t>
-        </is>
-      </c>
-      <c r="X27" t="inlineStr">
-        <is>
-          <t>Goods Carrying-Motorized 3 Wheelers</t>
-        </is>
-      </c>
-      <c r="Y27" t="inlineStr">
-        <is>
-          <t>JHANSI</t>
-        </is>
-      </c>
-      <c r="Z27" t="inlineStr">
-        <is>
-          <t>2011</t>
-        </is>
-      </c>
-      <c r="AA27" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AB27" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AC27" t="inlineStr"/>
-      <c r="AD27" t="inlineStr"/>
-      <c r="AE27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF27" t="inlineStr">
-        <is>
-          <t>4,492.00</t>
-        </is>
-      </c>
-      <c r="AG27" t="inlineStr"/>
-      <c r="AH27" t="inlineStr">
-        <is>
-          <t>4,542.00</t>
-        </is>
-      </c>
-      <c r="AI27" t="inlineStr">
-        <is>
-          <t>4,542.00</t>
-        </is>
-      </c>
-      <c r="AJ27" t="inlineStr">
-        <is>
-          <t>4,542.00</t>
-        </is>
-      </c>
-      <c r="AK27" t="inlineStr">
-        <is>
-          <t>548.04</t>
-        </is>
-      </c>
-      <c r="AL27" t="inlineStr">
-        <is>
-          <t>5,090.00</t>
-        </is>
-      </c>
-      <c r="AM27" t="inlineStr">
-        <is>
-          <t>Universal Sompo General Insurance Co. Lt</t>
-        </is>
-      </c>
-      <c r="AN27" t="inlineStr"/>
-      <c r="AO27" t="inlineStr">
-        <is>
-          <t>22/07/2024</t>
-        </is>
-      </c>
-      <c r="AP27" t="inlineStr"/>
-      <c r="AQ27" t="inlineStr">
-        <is>
-          <t>VD197099.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>VD197131</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Mr. SURESH SINGH</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>S/O KAN SINGH, R/O  RAIDHANA, TEH- LADNUN,,</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>9828245791</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>GOPALRATHORE25061989@GMAIL.COM</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>18/07/2024</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>24/07/2024</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>23/07/2025</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>08</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>Andheri Branch Office</t>
-        </is>
-      </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>27AABCF0191R2Z8</t>
-        </is>
-      </c>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr">
-        <is>
-          <t>General Insurance Service</t>
-        </is>
-      </c>
-      <c r="Q28" t="inlineStr">
-        <is>
-          <t>Diesel</t>
-        </is>
-      </c>
-      <c r="R28" t="inlineStr">
-        <is>
-          <t>A3G1633918</t>
-        </is>
-      </c>
-      <c r="S28" t="inlineStr">
-        <is>
-          <t>MBX000AWF2G309571</t>
-        </is>
-      </c>
-      <c r="T28" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="U28" t="inlineStr">
-        <is>
-          <t>436</t>
-        </is>
-      </c>
-      <c r="V28" t="inlineStr">
-        <is>
-          <t>RJ37PA3237</t>
-        </is>
-      </c>
-      <c r="W28" t="inlineStr">
-        <is>
-          <t>PIAGGIO APE XTRA DXL
-12
-R</t>
-        </is>
-      </c>
-      <c r="X28" t="inlineStr">
-        <is>
-          <t>3 Wheeled Vehicle For Carrying</t>
-        </is>
-      </c>
-      <c r="Y28" t="inlineStr">
-        <is>
-          <t>DIDWANA</t>
-        </is>
-      </c>
-      <c r="Z28" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="AA28" t="inlineStr">
-        <is>
-          <t>RATANA KANWAR</t>
-        </is>
-      </c>
-      <c r="AB28" t="inlineStr">
-        <is>
-          <t>Wife</t>
-        </is>
-      </c>
-      <c r="AC28" t="inlineStr">
-        <is>
-          <t>31Y</t>
-        </is>
-      </c>
-      <c r="AD28" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="AE28" t="inlineStr">
-        <is>
-          <t>795</t>
-        </is>
-      </c>
-      <c r="AF28" t="inlineStr">
-        <is>
-          <t>5,773.00</t>
-        </is>
-      </c>
-      <c r="AG28" t="inlineStr"/>
-      <c r="AH28" t="inlineStr">
-        <is>
-          <t>6,153.00</t>
-        </is>
-      </c>
-      <c r="AI28" t="inlineStr">
-        <is>
-          <t>6,948.00</t>
-        </is>
-      </c>
-      <c r="AJ28" t="inlineStr">
-        <is>
-          <t>6,948.00</t>
-        </is>
-      </c>
-      <c r="AK28" t="inlineStr">
-        <is>
-          <t>1,250.64</t>
-        </is>
-      </c>
-      <c r="AL28" t="inlineStr">
-        <is>
-          <t>8,199.00</t>
-        </is>
-      </c>
-      <c r="AM28" t="inlineStr">
-        <is>
-          <t>Tata AIG General Insurance Co. Lt</t>
-        </is>
-      </c>
-      <c r="AN28" t="inlineStr">
-        <is>
-          <t>630073197700</t>
-        </is>
-      </c>
-      <c r="AO28" t="inlineStr">
-        <is>
-          <t>23/07/2024</t>
-        </is>
-      </c>
-      <c r="AP28" t="inlineStr">
-        <is>
-          <t>228,480</t>
-        </is>
-      </c>
-      <c r="AQ28" t="inlineStr">
-        <is>
-          <t>VD197131 (1).pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>VD197131</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Mr. SURESH SINGH</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>S/O KAN SINGH, R/O  RAIDHANA, TEH- LADNUN,,</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>9828245791</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>GOPALRATHORE25061989@GMAIL.COM</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>18/07/2024</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>24/07/2024</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>23/07/2025</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>08</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>Andheri Branch Office</t>
-        </is>
-      </c>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="N29" t="inlineStr">
-        <is>
-          <t>27AABCF0191R2Z8</t>
-        </is>
-      </c>
-      <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr">
-        <is>
-          <t>General Insurance Service</t>
-        </is>
-      </c>
-      <c r="Q29" t="inlineStr">
-        <is>
-          <t>Diesel</t>
-        </is>
-      </c>
-      <c r="R29" t="inlineStr">
-        <is>
-          <t>A3G1633918</t>
-        </is>
-      </c>
-      <c r="S29" t="inlineStr">
-        <is>
-          <t>MBX000AWF2G309571</t>
-        </is>
-      </c>
-      <c r="T29" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="U29" t="inlineStr">
-        <is>
-          <t>436</t>
-        </is>
-      </c>
-      <c r="V29" t="inlineStr">
-        <is>
-          <t>RJ37PA3237</t>
-        </is>
-      </c>
-      <c r="W29" t="inlineStr">
-        <is>
-          <t>PIAGGIO APE XTRA DXL
-12
-R</t>
-        </is>
-      </c>
-      <c r="X29" t="inlineStr">
-        <is>
-          <t>3 Wheeled Vehicle For Carrying</t>
-        </is>
-      </c>
-      <c r="Y29" t="inlineStr">
-        <is>
-          <t>DIDWANA</t>
-        </is>
-      </c>
-      <c r="Z29" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="AA29" t="inlineStr">
-        <is>
-          <t>RATANA KANWAR</t>
-        </is>
-      </c>
-      <c r="AB29" t="inlineStr">
-        <is>
-          <t>Wife</t>
-        </is>
-      </c>
-      <c r="AC29" t="inlineStr">
-        <is>
-          <t>31Y</t>
-        </is>
-      </c>
-      <c r="AD29" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="AE29" t="inlineStr">
-        <is>
-          <t>795</t>
-        </is>
-      </c>
-      <c r="AF29" t="inlineStr">
-        <is>
-          <t>5,773.00</t>
-        </is>
-      </c>
-      <c r="AG29" t="inlineStr"/>
-      <c r="AH29" t="inlineStr">
-        <is>
-          <t>6,153.00</t>
-        </is>
-      </c>
-      <c r="AI29" t="inlineStr">
-        <is>
-          <t>6,948.00</t>
-        </is>
-      </c>
-      <c r="AJ29" t="inlineStr">
-        <is>
-          <t>6,948.00</t>
-        </is>
-      </c>
-      <c r="AK29" t="inlineStr">
-        <is>
-          <t>1,250.64</t>
-        </is>
-      </c>
-      <c r="AL29" t="inlineStr">
-        <is>
-          <t>8,199.00</t>
-        </is>
-      </c>
-      <c r="AM29" t="inlineStr">
-        <is>
-          <t>Tata AIG General Insurance Co. Lt</t>
-        </is>
-      </c>
-      <c r="AN29" t="inlineStr">
-        <is>
-          <t>630073197700</t>
-        </is>
-      </c>
-      <c r="AO29" t="inlineStr">
-        <is>
-          <t>23/07/2024</t>
-        </is>
-      </c>
-      <c r="AP29" t="inlineStr">
-        <is>
-          <t>228,480</t>
-        </is>
-      </c>
-      <c r="AQ29" t="inlineStr">
-        <is>
-          <t>VD197131.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>VD199152</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Mr. MANSHA RAM</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>S O, LATE SHRI RAM, DHANNEPUR, Jaunpur, Uttar</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>9984230712</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>priyanshujaunpur@gmail.com</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>18/07/2024</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>21/07/2024</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>20/07/2025</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>09</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>Andheri Branch Office</t>
-        </is>
-      </c>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="N30" t="inlineStr">
-        <is>
-          <t>27AABCF0191R2Z8</t>
-        </is>
-      </c>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr">
-        <is>
-          <t>General Insurance Service</t>
-        </is>
-      </c>
-      <c r="Q30" t="inlineStr">
-        <is>
-          <t>Diesel</t>
-        </is>
-      </c>
-      <c r="R30" t="inlineStr">
-        <is>
-          <t>S6F8578871</t>
-        </is>
-      </c>
-      <c r="S30" t="inlineStr">
-        <is>
-          <t>1212121ZFUF310430</t>
-        </is>
-      </c>
-      <c r="T30" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="U30" t="inlineStr">
-        <is>
-          <t>436</t>
-        </is>
-      </c>
-      <c r="V30" t="inlineStr">
-        <is>
-          <t>UP62AT5369</t>
-        </is>
-      </c>
-      <c r="W30" t="inlineStr">
-        <is>
-          <t>PIAGGIO APE AUTO PLUS
-12
-R</t>
-        </is>
-      </c>
-      <c r="X30" t="inlineStr">
-        <is>
-          <t>3 Wheeled Vehicle For Carrying</t>
-        </is>
-      </c>
-      <c r="Y30" t="inlineStr">
-        <is>
-          <t>JAUNPUR</t>
-        </is>
-      </c>
-      <c r="Z30" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="AA30" t="inlineStr">
-        <is>
-          <t>Jay Shankar</t>
-        </is>
-      </c>
-      <c r="AB30" t="inlineStr">
-        <is>
-          <t>Child</t>
-        </is>
-      </c>
-      <c r="AC30" t="inlineStr">
-        <is>
-          <t>36Y</t>
-        </is>
-      </c>
-      <c r="AD30" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="AE30" t="inlineStr">
-        <is>
-          <t>245</t>
-        </is>
-      </c>
-      <c r="AF30" t="inlineStr">
-        <is>
-          <t>5,773.00</t>
-        </is>
-      </c>
-      <c r="AG30" t="inlineStr"/>
-      <c r="AH30" t="inlineStr">
-        <is>
-          <t>6,103.00</t>
-        </is>
-      </c>
-      <c r="AI30" t="inlineStr">
-        <is>
-          <t>6,348.00</t>
-        </is>
-      </c>
-      <c r="AJ30" t="inlineStr">
-        <is>
-          <t>6,348.00</t>
-        </is>
-      </c>
-      <c r="AK30" t="inlineStr">
-        <is>
-          <t>1,142.64</t>
-        </is>
-      </c>
-      <c r="AL30" t="inlineStr">
-        <is>
-          <t>7,491.00</t>
-        </is>
-      </c>
-      <c r="AM30" t="inlineStr"/>
-      <c r="AN30" t="inlineStr"/>
-      <c r="AO30" t="inlineStr"/>
-      <c r="AP30" t="inlineStr">
-        <is>
-          <t>74,000</t>
-        </is>
-      </c>
-      <c r="AQ30" t="inlineStr">
-        <is>
-          <t>VD199152.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>VD199469</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Mr. SANTOSH KUMAR</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>C O RAM PUKAR KANYA PARISAR RO, ARMA LAKDI</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>8839482440</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>THEBROKERS09@GMAIL.COM</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>18/07/2024</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>19/07/2024</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>18/07/2025</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>Andheri Branch Office</t>
-        </is>
-      </c>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="N31" t="inlineStr">
-        <is>
-          <t>27AABCF0191R2Z8</t>
-        </is>
-      </c>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr">
-        <is>
-          <t>General Insurance Service</t>
-        </is>
-      </c>
-      <c r="Q31" t="inlineStr">
-        <is>
-          <t>Diesel</t>
-        </is>
-      </c>
-      <c r="R31" t="inlineStr">
-        <is>
-          <t>W1K3240451</t>
-        </is>
-      </c>
-      <c r="S31" t="inlineStr">
-        <is>
-          <t>0O0O0O0ZFNK389987</t>
-        </is>
-      </c>
-      <c r="T31" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="U31" t="inlineStr">
-        <is>
-          <t>436</t>
-        </is>
-      </c>
-      <c r="V31" t="inlineStr">
-        <is>
-          <t>CG15AD0433</t>
-        </is>
-      </c>
-      <c r="W31" t="inlineStr">
-        <is>
-          <t>PIAGGIO APE D3S BS-III RICKSHAW PASSENGER
-12
-R</t>
-        </is>
-      </c>
-      <c r="X31" t="inlineStr">
-        <is>
-          <t>3 Wheeled Vehicle For Carrying</t>
-        </is>
-      </c>
-      <c r="Y31" t="inlineStr">
-        <is>
-          <t>AMBIKAPUR</t>
-        </is>
-      </c>
-      <c r="Z31" t="inlineStr">
-        <is>
-          <t>2011</t>
-        </is>
-      </c>
-      <c r="AA31" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AB31" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AC31" t="inlineStr"/>
-      <c r="AD31" t="inlineStr"/>
-      <c r="AE31" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF31" t="inlineStr">
-        <is>
-          <t>5,773.00</t>
-        </is>
-      </c>
-      <c r="AG31" t="inlineStr"/>
-      <c r="AH31" t="inlineStr">
-        <is>
-          <t>5,823.00</t>
-        </is>
-      </c>
-      <c r="AI31" t="inlineStr">
-        <is>
-          <t>5,823.00</t>
-        </is>
-      </c>
-      <c r="AJ31" t="inlineStr">
-        <is>
-          <t>5,823.00</t>
-        </is>
-      </c>
-      <c r="AK31" t="inlineStr">
-        <is>
-          <t>1,048.14</t>
-        </is>
-      </c>
-      <c r="AL31" t="inlineStr">
-        <is>
-          <t>6,871.00</t>
-        </is>
-      </c>
-      <c r="AM31" t="inlineStr"/>
-      <c r="AN31" t="inlineStr"/>
-      <c r="AO31" t="inlineStr"/>
-      <c r="AP31" t="inlineStr"/>
-      <c r="AQ31" t="inlineStr">
-        <is>
           <t>VD199469.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>VD200374</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Mr. SANDILYAN M</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>299, 6TH STREET BV COLONY VYSARPADI, Chennai,</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>9444267105</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>Velunachiyar.d@gmail.com</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>18/07/2024</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>21/07/2024</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>20/07/2025</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>Andheri Branch Office</t>
-        </is>
-      </c>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="N32" t="inlineStr">
-        <is>
-          <t>27AABCF0191R2Z8</t>
-        </is>
-      </c>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr">
-        <is>
-          <t>General Insurance Service</t>
-        </is>
-      </c>
-      <c r="Q32" t="inlineStr">
-        <is>
-          <t>CNG</t>
-        </is>
-      </c>
-      <c r="R32" t="inlineStr">
-        <is>
-          <t>TBP0SD13002599</t>
-        </is>
-      </c>
-      <c r="S32" t="inlineStr">
-        <is>
-          <t>MBX0006DF1D173315</t>
-        </is>
-      </c>
-      <c r="T32" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="U32" t="inlineStr">
-        <is>
-          <t>275</t>
-        </is>
-      </c>
-      <c r="V32" t="inlineStr">
-        <is>
-          <t>TN05CH1477</t>
-        </is>
-      </c>
-      <c r="W32" t="inlineStr">
-        <is>
-          <t>PIAGGIO APE CITY CNG RICKSHAW PASSENGER
-12
-R</t>
-        </is>
-      </c>
-      <c r="X32" t="inlineStr">
-        <is>
-          <t>3 Wheeled Vehicle For Carrying</t>
-        </is>
-      </c>
-      <c r="Y32" t="inlineStr">
-        <is>
-          <t>CHENNAI</t>
-        </is>
-      </c>
-      <c r="Z32" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
-      <c r="AA32" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AB32" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AC32" t="inlineStr"/>
-      <c r="AD32" t="inlineStr"/>
-      <c r="AE32" t="inlineStr">
-        <is>
-          <t>381</t>
-        </is>
-      </c>
-      <c r="AF32" t="inlineStr">
-        <is>
-          <t>5,773.00</t>
-        </is>
-      </c>
-      <c r="AG32" t="inlineStr"/>
-      <c r="AH32" t="inlineStr">
-        <is>
-          <t>5,833.00</t>
-        </is>
-      </c>
-      <c r="AI32" t="inlineStr">
-        <is>
-          <t>6,214.00</t>
-        </is>
-      </c>
-      <c r="AJ32" t="inlineStr">
-        <is>
-          <t>6,214.00</t>
-        </is>
-      </c>
-      <c r="AK32" t="inlineStr">
-        <is>
-          <t>1,118.52</t>
-        </is>
-      </c>
-      <c r="AL32" t="inlineStr">
-        <is>
-          <t>7,333.00</t>
-        </is>
-      </c>
-      <c r="AM32" t="inlineStr">
-        <is>
-          <t>Tata AIG General Insurance Co. Lt</t>
-        </is>
-      </c>
-      <c r="AN32" t="inlineStr">
-        <is>
-          <t>630071757300</t>
-        </is>
-      </c>
-      <c r="AO32" t="inlineStr">
-        <is>
-          <t>20/07/2024</t>
-        </is>
-      </c>
-      <c r="AP32" t="inlineStr">
-        <is>
-          <t>102,900</t>
-        </is>
-      </c>
-      <c r="AQ32" t="inlineStr">
-        <is>
-          <t>VD200374.pdf</t>
         </is>
       </c>
     </row>
